--- a/4_ProjectManagement/Studies/FP_study_Sergio.xlsx
+++ b/4_ProjectManagement/Studies/FP_study_Sergio.xlsx
@@ -643,7 +643,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +883,7 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
